--- a/data/cases_data.xlsx
+++ b/data/cases_data.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -11,75 +11,69 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>getconfiggameh5_params</t>
+  </si>
+  <si>
+    <t>list5_params</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>pmap_result</t>
+  </si>
+  <si>
+    <t>getconfiggameh5</t>
+  </si>
+  <si>
+    <t>http://m.mokabook.cn/api/getconfiggameh5</t>
+  </si>
+  <si>
+    <t>验证 bbxs8&amp;4501</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"adHost":"m.bbxs8.com","cid":"mk1099","platform":"distribute","s_access":"4G","s_browser":"iphone","s_device_brand":"iPhone","s_device_id":"undefined","s_os_version":"iOS13.23","s_pid":"H5WEB","s_spid":"#s_spid#","sessionid":"#sessionid#","t":"#t#","userid":"#userid#","version":"3.0.0"}</t>
+  </si>
+  <si>
+    <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4501","project": "moka"}</t>
+  </si>
+  <si>
+    <t>验证 bbxs8&amp;4502</t>
+  </si>
+  <si>
+    <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4502","project": "moka"}</t>
+  </si>
+  <si>
+    <t>{'4501': {'clist': [{'seqId': 52524, 'name': 'bbxs8-yxbanner-推凡1', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '363031', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '3FWzuHrXtTzCqiSyhKQufHgnoKhG', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'yx-banner', 'thirdAdPlatforms': 'TUIA'}, 'playSec': 15, 'deliveryId': '556703', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/getconfignovelh5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getconfignovelh5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取是否开启SSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"adHost": "m.bbxs8.com","cid": "mk1099","platform": "distribute","s_access": "4G","s_browser": "iphone","s_device_brand": "iPhone","s_device_id": "undefined", "s_os_version": "iOS13.23","s_pid": "H5WEB",
-"s_spid": "#s_spid#","sessionid": "#sessionid#","t": "#t#","userid": "#userid#","version": "3.0.0","sign": "*sign*"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://m.mokayd.com/api/ykloginH5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cid": "mk1099","mac": "16QNQ0KJL0946066518","platform": "distribute","s_access": "4G","s_browser": "iphone","s_device_brand": "iPhone","s_device_id": "16QNQ0KJL0946066518","s_os_version":"iOS13.23","s_pid": "H5WEB","s_spid": "mk1099","sex": "1","t":"#t#","version": "3.0.0"}</t>
+    <t>{'4502': {'clist': [{'seqId': 52586, 'name': 'bbxs8-chaping1-SSP专用', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '6081230387055783', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '1111018940', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'chaping1', 'thirdAdPlatforms': 'GDT'}, 'playSec': 15, 'deliveryId': '557778', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,15 +124,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,80 +450,100 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/cases_data.xlsx
+++ b/data/cases_data.xlsx
@@ -1,113 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>getconfiggameh5_params</t>
-  </si>
-  <si>
-    <t>list5_params</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>pmap_result</t>
-  </si>
-  <si>
-    <t>getconfiggameh5</t>
-  </si>
-  <si>
-    <t>http://m.mokabook.cn/api/getconfiggameh5</t>
-  </si>
-  <si>
-    <t>验证 bbxs8&amp;4501</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{"adHost":"m.bbxs8.com","cid":"mk1099","platform":"distribute","s_access":"4G","s_browser":"iphone","s_device_brand":"iPhone","s_device_id":"undefined","s_os_version":"iOS13.23","s_pid":"H5WEB","s_spid":"#s_spid#","sessionid":"#sessionid#","t":"#t#","userid":"#userid#","version":"3.0.0"}</t>
-  </si>
-  <si>
-    <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4501","project": "moka"}</t>
-  </si>
-  <si>
-    <t>验证 bbxs8&amp;4502</t>
-  </si>
-  <si>
-    <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4502","project": "moka"}</t>
-  </si>
-  <si>
-    <t>{'4501': {'clist': [{'seqId': 52524, 'name': 'bbxs8-yxbanner-推凡1', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '363031', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '3FWzuHrXtTzCqiSyhKQufHgnoKhG', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'yx-banner', 'thirdAdPlatforms': 'TUIA'}, 'playSec': 15, 'deliveryId': '556703', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=hZbQ8otI2iFnPHqiiqGK'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'4502': {'clist': [{'seqId': 52586, 'name': 'bbxs8-chaping1-SSP专用', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '6081230387055783', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '1111018940', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'chaping1', 'thirdAdPlatforms': 'GDT'}, 'playSec': 15, 'deliveryId': '557778', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=HAGr76pbVHdE6qxVmFdW'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,32 +60,94 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,137 +437,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="36.25" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="18.25"/>
+    <col customWidth="1" max="3" min="3" width="23"/>
+    <col customWidth="1" max="4" min="4" width="15.625"/>
+    <col customWidth="1" max="7" min="6" width="33"/>
+    <col customWidth="1" max="8" min="8" width="16.125"/>
+    <col customWidth="1" max="9" min="9" width="36.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row customFormat="1" r="1" s="3">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>getconfiggameh5_params</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>list5_params</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>pmap_result</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="121.5" r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>getconfiggameh5</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>http://m.mokabook.cn/api/getconfiggameh5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>验证 bbxs8&amp;4501</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>{"adHost":"m.bbxs8.com","cid":"mk1099","platform":"distribute","s_access":"4G","s_browser":"iphone","s_device_brand":"iPhone","s_device_id":"undefined","s_os_version":"iOS13.23","s_pid":"H5WEB","s_spid":"#s_spid#","sessionid":"#sessionid#","t":"#t#","userid":"#userid#","version":"3.0.0"}</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4501","project": "moka"}</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>{'4501': {'clist': [{'seqId': 52524, 'name': 'bbxs8-yxbanner-推凡1', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '363031', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '3FWzuHrXtTzCqiSyhKQufHgnoKhG', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'yx-banner', 'thirdAdPlatforms': 'TUIA'}, 'playSec': 15, 'deliveryId': '556703', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=XVKA0XZNNXPawDG9vDGH', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=XVKA0XZNNXPawDG9vDGH', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=556703&amp;crid=52524&amp;pid=4501&amp;uuid=XVKA0XZNNXPawDG9vDGH'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="121.5" r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>getconfiggameh5</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>http://m.mokabook.cn/api/getconfiggameh5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>验证 bbxs8&amp;4502</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>{"adHost":"m.bbxs8.com","cid":"mk1099","platform":"distribute","s_access":"4G","s_browser":"iphone","s_device_brand":"iPhone","s_device_id":"undefined","s_os_version":"iOS13.23","s_pid":"H5WEB","s_spid":"#s_spid#","sessionid":"#sessionid#","t":"#t#","userid":"#userid#","version":"3.0.0"}</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>{"cids": "#spid#","did": "#userid#","envirs": "browse-common","pids": "4502","project": "moka"}</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>{'4502': {'clist': [{'seqId': 52586, 'name': 'bbxs8-chaping1-SSP专用', 'dataType': 'THIRD_AD', 'dataJson': {'adid': '6081230387055783', 'domain': 'm.bbxs8.com', 'subType': 'DEFAULT', 'thirdKey': '1111018940', 'clickLink': '', 'linkedType': '1', 'oldLocationId': 'chaping1', 'thirdAdPlatforms': 'GDT'}, 'playSec': 15, 'deliveryId': '557778', 'pv': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pv?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=wzODxoTpmfUS3k95AIB5', 'click': 'http://svr.ssp.paimei.com/ssp-svr/ssp/click?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=wzODxoTpmfUS3k95AIB5', 'pvEnd': 'http://svr.ssp.paimei.com/ssp-svr/ssp/pvEnd?deid=557778&amp;crid=52586&amp;pid=4502&amp;uuid=wzODxoTpmfUS3k95AIB5'}], 'width': 720, 'height': 1280, 'listType': 'TURN', 'turn': 1, 'playSec': 30}}</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>